--- a/hauntedparadise/Excels/Building_建筑.xlsx
+++ b/hauntedparadise/Excels/Building_建筑.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198F2EFB-F6F8-4034-B037-C7A9A41F9424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05E203-9103-4005-984F-B1D7BCC8366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="294">
   <si>
     <t>int</t>
   </si>
@@ -913,7 +922,16 @@
     <t>100004|11</t>
   </si>
   <si>
-    <t>100001|12</t>
+    <t>2217C0994605ADDABDB340BF5D2BA83E</t>
+  </si>
+  <si>
+    <t>82E629E441D73D3C53E7178F0BBF07D1</t>
+  </si>
+  <si>
+    <t>82E3ED474555FD845F9274AD4D811155</t>
+  </si>
+  <si>
+    <t>54A0CA9A41F7226FCA67DF949C0F89EB</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4723,9 +4741,97 @@
         <v>41</v>
       </c>
       <c r="Q79" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8">
+        <v>290629</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>150</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
         <v>290</v>
       </c>
-      <c r="R79">
+      <c r="I80" t="s">
+        <v>291</v>
+      </c>
+      <c r="K80">
+        <v>57200</v>
+      </c>
+      <c r="L80" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>175</v>
+      </c>
+      <c r="B81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8">
+        <v>290569</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>150</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>292</v>
+      </c>
+      <c r="I81" t="s">
+        <v>293</v>
+      </c>
+      <c r="K81">
+        <v>57200</v>
+      </c>
+      <c r="L81" t="s">
+        <v>40</v>
+      </c>
+      <c r="M81" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q81" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="R81">
         <v>2</v>
       </c>
     </row>

--- a/hauntedparadise/Excels/Building_建筑.xlsx
+++ b/hauntedparadise/Excels/Building_建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92300E19-4E59-4990-B8BB-D7FA6164F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99F2564-6F59-40D4-BCC3-7944A5129EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="81" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>286</v>

--- a/hauntedparadise/Excels/Building_建筑.xlsx
+++ b/hauntedparadise/Excels/Building_建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99F2564-6F59-40D4-BCC3-7944A5129EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945CBBA-4CA3-43B8-B09D-405101AF0A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4691,6 +4691,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="12">
+        <v>20005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>

--- a/hauntedparadise/Excels/Building_建筑.xlsx
+++ b/hauntedparadise/Excels/Building_建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945CBBA-4CA3-43B8-B09D-405101AF0A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42810FB3-B8F6-4768-898A-699B2B94B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,38 +877,45 @@
   </si>
   <si>
     <t>CCFEB58042961C9C238A39B65A3F1102</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>E5B62B204B406487E37278AA5F56B00B</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>木板</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BDAD2B924799FADB854F7F84D28E2B7F</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>87953CE84921FD54F52C9B81DE8C6A8D</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>木墙</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,39 +1004,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1259,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="N90" sqref="N89:N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4672,7 +4680,7 @@
       <c r="H81" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="14" t="s">
         <v>284</v>
       </c>
       <c r="K81">
@@ -4712,7 +4720,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/hauntedparadise/Excels/Building_建筑.xlsx
+++ b/hauntedparadise/Excels/Building_建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42810FB3-B8F6-4768-898A-699B2B94B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706EDB18-089C-416E-8321-1D677A0E61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="329">
   <si>
     <t>int</t>
   </si>
@@ -877,26 +877,194 @@
   </si>
   <si>
     <t>CCFEB58042961C9C238A39B65A3F1102</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>E5B62B204B406487E37278AA5F56B00B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>木板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BDAD2B924799FADB854F7F84D28E2B7F</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>87953CE84921FD54F52C9B81DE8C6A8D</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>木墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形木墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗木墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门木墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质楼梯</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形石墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗石墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门石墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>石质楼梯</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形铁墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗铁墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门铁墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁质楼梯</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2D5DB1546D260B48679BA8005DB3AC2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>木墙</t>
+    <t>6312109248937C501C0BEDB9547B2CFD</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC96771459957628F14B68E5697E7DF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6B1526B4418408A72592D795E7428F08</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>543F189740E97631B0DD2B86ABBB1526</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D4BFDDE4E937CF7DDE66EAC89BDACB4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5B0D5B34094FFEE2DF11FB08F2C50BD</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA5778AE44865A4FC11876B57EC19D7B</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C37005F34A786291DC97CAA1294C28FE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4BA63F77432EA09F086E58B9A33D2C2A</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4CCB38CA439759F114F015953ECFE0BA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF70DA7C4DD64B268DD575A177CE8D47</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8C639064CA5D53BDB4CEF864457B5E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>980E2E8F401CF83285E8DF8903E5DE0F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>45886D0E400797DF4F3BFE999775D550</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3326ABC64AF5785CD0122A9DF4367EAD</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>7AE9AD3948452E7EFB0C9FAEB5AEF958</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B14E0B9471C9337028EA5B220CE46EC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形金属墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗金属墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门金属墙</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属楼梯</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9F9D62F7456CDCDE81ADCB9F1CE54B7D</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9CFCE31443D214C2FA3D8ADF77C84FC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4E17295443C89E2D9091E39F3E05D1B7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>940FD71C476BABE9856314A3BFCF2898</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A97F571E4FFDA8C804F327B3A2CAC1BC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -904,11 +1072,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1004,39 +1179,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="N90" sqref="N89:N90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4699,28 +4875,844 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>20002</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="13">
+        <v>197995</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>150</v>
+      </c>
+      <c r="G82" s="13">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="K82">
+        <v>57200</v>
+      </c>
+      <c r="L82" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>20003</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13">
+        <v>54773</v>
+      </c>
+      <c r="E83" s="13">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>150</v>
+      </c>
+      <c r="G83" s="13">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K83">
+        <v>57200</v>
+      </c>
+      <c r="L83" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>20004</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13">
+        <v>54765</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>150</v>
+      </c>
+      <c r="G84" s="13">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K84">
+        <v>57200</v>
+      </c>
+      <c r="L84" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>20005</v>
       </c>
+      <c r="B85" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1</v>
+      </c>
+      <c r="D85" s="13">
+        <v>92681</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>150</v>
+      </c>
+      <c r="G85" s="13">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K85">
+        <v>57200</v>
+      </c>
+      <c r="L85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="13">
+        <v>95253</v>
+      </c>
+      <c r="E86" s="13">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>150</v>
+      </c>
+      <c r="G86" s="13">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K86">
+        <v>57200</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="12">
+        <v>20007</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1</v>
+      </c>
+      <c r="D87" s="13">
+        <v>95370</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>150</v>
+      </c>
+      <c r="G87" s="13">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="K87">
+        <v>57200</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="12">
+        <v>20008</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
+      <c r="D88" s="13">
+        <v>197949</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>150</v>
+      </c>
+      <c r="G88" s="13">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K88">
+        <v>57200</v>
+      </c>
+      <c r="L88" t="s">
+        <v>45</v>
+      </c>
+      <c r="M88" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="12">
+        <v>20009</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13">
+        <v>53946</v>
+      </c>
+      <c r="E89" s="13">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>150</v>
+      </c>
+      <c r="G89" s="13">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K89">
+        <v>57200</v>
+      </c>
+      <c r="L89" t="s">
+        <v>45</v>
+      </c>
+      <c r="M89" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="12">
+        <v>20010</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="13">
+        <v>93264</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>150</v>
+      </c>
+      <c r="G90" s="13">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K90">
+        <v>57200</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
+      </c>
+      <c r="M90" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="12">
+        <v>20011</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13">
+        <v>78438</v>
+      </c>
+      <c r="E91" s="13">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>150</v>
+      </c>
+      <c r="G91" s="13">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K91">
+        <v>57200</v>
+      </c>
+      <c r="L91" t="s">
+        <v>45</v>
+      </c>
+      <c r="M91" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="12">
+        <v>20012</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13">
+        <v>197995</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>150</v>
+      </c>
+      <c r="G92" s="13">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="K92">
+        <v>57200</v>
+      </c>
+      <c r="L92" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="12">
+        <v>20013</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="13">
+        <v>197949</v>
+      </c>
+      <c r="E93" s="13">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>150</v>
+      </c>
+      <c r="G93" s="13">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K93">
+        <v>57200</v>
+      </c>
+      <c r="L93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="12">
+        <v>20014</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1</v>
+      </c>
+      <c r="D94" s="13">
+        <v>197995</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>150</v>
+      </c>
+      <c r="G94" s="13">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K94">
+        <v>57200</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="12">
+        <v>20015</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1</v>
+      </c>
+      <c r="D95" s="13">
+        <v>104072</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>150</v>
+      </c>
+      <c r="G95" s="13">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K95">
+        <v>57200</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="12">
+        <v>20016</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1</v>
+      </c>
+      <c r="D96" s="13">
+        <v>76593</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>150</v>
+      </c>
+      <c r="G96" s="13">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K96">
+        <v>57200</v>
+      </c>
+      <c r="L96" t="s">
+        <v>45</v>
+      </c>
+      <c r="M96" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="12">
+        <v>20017</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13">
+        <v>197995</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>150</v>
+      </c>
+      <c r="G97" s="13">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="K97">
+        <v>57200</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="12">
+        <v>20018</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13">
+        <v>197949</v>
+      </c>
+      <c r="E98" s="13">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>150</v>
+      </c>
+      <c r="G98" s="13">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K98">
+        <v>57200</v>
+      </c>
+      <c r="L98" t="s">
+        <v>45</v>
+      </c>
+      <c r="M98" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="12">
+        <v>20019</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1</v>
+      </c>
+      <c r="D99" s="13">
+        <v>197995</v>
+      </c>
+      <c r="E99" s="13">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>150</v>
+      </c>
+      <c r="G99" s="13">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K99">
+        <v>57200</v>
+      </c>
+      <c r="L99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="12">
+        <v>20020</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13">
+        <v>141417</v>
+      </c>
+      <c r="E100" s="13">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>150</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K100">
+        <v>57200</v>
+      </c>
+      <c r="L100" t="s">
+        <v>45</v>
+      </c>
+      <c r="M100" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
